--- a/arbitrage_betting.xlsx
+++ b/arbitrage_betting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffrey\Documents\Personal Projects\arbitrage_betting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1EF367-C96A-42EA-85A3-9AC19E2B5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0E46C1-A488-4A8E-9CE8-539A2AB0F870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10632" yWindow="3264" windowWidth="17280" windowHeight="8964" xr2:uid="{4501CB9B-9C95-442D-91A6-D945D13E058E}"/>
+    <workbookView xWindow="47880" yWindow="-3480" windowWidth="25440" windowHeight="15390" xr2:uid="{4501CB9B-9C95-442D-91A6-D945D13E058E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,14 +738,18 @@
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:G1048576"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.21875" customWidth="1"/>
     <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
